--- a/Config/Datas/UI/UIConfig.xlsx
+++ b/Config/Datas/UI/UIConfig.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity项目\GEFramework\Config\Datas\UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity项目\ET-master (1)\ET-master\Config\Datas\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8010A478-8D0F-4D64-AFFE-31D64E476A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC504DF-DD6A-4CE6-BF4B-7AD446B81050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13395" yWindow="3795" windowWidth="14940" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="3045" windowWidth="14940" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -492,7 +492,7 @@
   <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -536,7 +536,9 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
